--- a/UiBankLoanGroup/Data/Config.xlsx
+++ b/UiBankLoanGroup/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\RPA Course\UiPath\Other Projects\UiBankLoanGroup\UiBankLoanGroup\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55DBD01-AD9D-4F02-8722-CC7167DCCA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE779E1F-9DD6-4D1F-A3E1-3E82C60F4BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4095" yWindow="1410" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
     <t>Shared</t>
   </si>
   <si>
-    <t>sophia.connolly@schoolofautomation.techsfsdag</t>
+    <t>kylemac64@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
